--- a/product-data.xlsx
+++ b/product-data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Web-Admin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8920A251-6A52-45A5-888D-FD35163D23F0}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA61C86E-E19D-4631-B803-05A82968BB86}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{E15D345A-EF3A-4DE7-A3CF-FCC16FB4103B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7488" xr2:uid="{E15D345A-EF3A-4DE7-A3CF-FCC16FB4103B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1027,7 +1027,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -1377,22 +1377,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7481A2E7-21CE-4118-9DE7-0E52D15695ED}">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A156"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="40.75" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="40.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>230</v>
-      </c>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1403,9 +1400,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>56</v>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>230</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -1416,8 +1413,12 @@
       <c r="D2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="N2" t="str">
+        <f>"INSERT INTO `products` (`id`, `name`, `id_type`, `origin`, `description`, `price`, `promotion`, `image`, `created_at`, `updated_at`) VALUES "</f>
+        <v xml:space="preserve">INSERT INTO `products` (`id`, `name`, `id_type`, `origin`, `description`, `price`, `promotion`, `image`, `created_at`, `updated_at`) VALUES </v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
@@ -1431,7 +1432,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>56</v>
       </c>
@@ -1445,7 +1446,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>56</v>
       </c>
@@ -1459,7 +1460,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -1473,7 +1474,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1501,7 +1502,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>56</v>
       </c>
@@ -1515,7 +1516,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
         <v>56</v>
       </c>
@@ -1529,7 +1530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
         <v>56</v>
       </c>
@@ -1543,7 +1544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>56</v>
       </c>
@@ -1557,7 +1558,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>56</v>
       </c>
@@ -1571,7 +1572,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>56</v>
       </c>
@@ -1585,7 +1586,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>56</v>
       </c>
@@ -1599,7 +1600,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>56</v>
       </c>
@@ -1613,7 +1614,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>56</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>56</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>56</v>
       </c>
@@ -1655,7 +1656,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -1669,7 +1670,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>56</v>
       </c>
@@ -1683,7 +1684,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
         <v>56</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>56</v>
       </c>
@@ -1711,7 +1712,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
         <v>56</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>56</v>
       </c>
@@ -1739,9 +1740,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>230</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
@@ -1753,7 +1754,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>230</v>
       </c>
@@ -1767,7 +1768,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>230</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
         <v>230</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>230</v>
       </c>
@@ -1809,7 +1810,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="1" t="s">
         <v>230</v>
       </c>
@@ -1823,7 +1824,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
         <v>230</v>
       </c>
@@ -1837,7 +1838,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>230</v>
       </c>
@@ -1851,7 +1852,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="1" t="s">
         <v>230</v>
       </c>
@@ -1865,7 +1866,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>230</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
         <v>230</v>
       </c>
@@ -1893,7 +1894,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="1" t="s">
         <v>230</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="1" t="s">
         <v>230</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>230</v>
       </c>
@@ -1935,7 +1936,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="1" t="s">
         <v>230</v>
       </c>
@@ -1949,7 +1950,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>230</v>
       </c>
@@ -1963,7 +1964,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>230</v>
       </c>
@@ -1977,7 +1978,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>230</v>
       </c>
@@ -1991,7 +1992,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>230</v>
       </c>
@@ -2005,7 +2006,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>230</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>230</v>
       </c>
@@ -2033,7 +2034,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>230</v>
       </c>
@@ -2047,7 +2048,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>230</v>
       </c>
@@ -2061,7 +2062,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>230</v>
       </c>
@@ -2075,7 +2076,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>230</v>
       </c>
@@ -2089,7 +2090,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>230</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>230</v>
       </c>
@@ -2117,7 +2118,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>230</v>
       </c>
@@ -2131,7 +2132,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>230</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>230</v>
       </c>
@@ -2159,7 +2160,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>230</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>230</v>
       </c>
@@ -2187,7 +2188,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>230</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>230</v>
       </c>
@@ -2215,7 +2216,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="60" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>230</v>
       </c>
@@ -2229,7 +2230,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="61" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
         <v>230</v>
       </c>
@@ -2243,7 +2244,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="62" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>230</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>230</v>
       </c>
@@ -2271,7 +2272,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>230</v>
       </c>
@@ -2285,7 +2286,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>230</v>
       </c>
@@ -2299,7 +2300,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>230</v>
       </c>
@@ -2313,7 +2314,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="67" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>230</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="68" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="1" t="s">
         <v>230</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="69" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>230</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="1" t="s">
         <v>230</v>
       </c>
@@ -2369,7 +2370,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="1" t="s">
         <v>230</v>
       </c>
@@ -2383,7 +2384,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="1" t="s">
         <v>230</v>
       </c>
@@ -2397,7 +2398,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>230</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="1" t="s">
         <v>230</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="1" t="s">
         <v>230</v>
       </c>
@@ -2439,7 +2440,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="76" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="1" t="s">
         <v>230</v>
       </c>
@@ -2453,7 +2454,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>230</v>
       </c>
@@ -2467,7 +2468,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>230</v>
       </c>
@@ -2481,7 +2482,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="1" t="s">
         <v>230</v>
       </c>
@@ -2495,7 +2496,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="80" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
         <v>230</v>
       </c>
@@ -2509,7 +2510,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A81" s="1" t="s">
         <v>230</v>
       </c>
@@ -2523,7 +2524,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="1" t="s">
         <v>230</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="1" t="s">
         <v>230</v>
       </c>
@@ -2551,7 +2552,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>230</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" s="1" t="s">
         <v>230</v>
       </c>
@@ -2579,7 +2580,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="86" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="1" t="s">
         <v>230</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="1" t="s">
         <v>230</v>
       </c>
@@ -2607,7 +2608,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>230</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="89" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A89" s="1" t="s">
         <v>230</v>
       </c>
@@ -2635,7 +2636,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="1" t="s">
         <v>230</v>
       </c>
@@ -2649,7 +2650,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" s="1" t="s">
         <v>230</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="92" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" s="1" t="s">
         <v>230</v>
       </c>
@@ -2677,7 +2678,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="1" t="s">
         <v>230</v>
       </c>
@@ -2691,7 +2692,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" s="1" t="s">
         <v>230</v>
       </c>
@@ -2705,7 +2706,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A95" s="1" t="s">
         <v>230</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>230</v>
       </c>
@@ -2733,7 +2734,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="97" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A97" s="1" t="s">
         <v>230</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>230</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>230</v>
       </c>
@@ -2775,7 +2776,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="100" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" s="1" t="s">
         <v>230</v>
       </c>
@@ -2789,7 +2790,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" s="1" t="s">
         <v>230</v>
       </c>
@@ -2803,7 +2804,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
         <v>230</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A103" s="1" t="s">
         <v>230</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="104" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>230</v>
       </c>
@@ -2845,7 +2846,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>230</v>
       </c>
@@ -2859,7 +2860,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="106" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="1" t="s">
         <v>230</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A107" s="1" t="s">
         <v>230</v>
       </c>
@@ -2887,7 +2888,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A108" s="1" t="s">
         <v>230</v>
       </c>
@@ -2901,9 +2902,9 @@
         <v>229</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A109" s="1" t="s">
-        <v>328</v>
+        <v>230</v>
       </c>
       <c r="B109" t="s">
         <v>231</v>
@@ -2915,7 +2916,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A110" s="1" t="s">
         <v>328</v>
       </c>
@@ -2929,7 +2930,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="111" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A111" s="1" t="s">
         <v>328</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="112" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A112" s="1" t="s">
         <v>328</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="113" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
         <v>328</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="114" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>328</v>
       </c>
@@ -2985,7 +2986,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="115" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
         <v>328</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="116" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
         <v>328</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="117" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
         <v>328</v>
       </c>
@@ -3027,7 +3028,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="118" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
         <v>328</v>
       </c>
@@ -3041,7 +3042,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="119" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>328</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
         <v>328</v>
       </c>
@@ -3069,7 +3070,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="121" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
         <v>328</v>
       </c>
@@ -3083,7 +3084,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="122" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>328</v>
       </c>
@@ -3097,7 +3098,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
         <v>328</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="124" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A124" s="1" t="s">
         <v>328</v>
       </c>
@@ -3125,7 +3126,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="125" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A125" s="1" t="s">
         <v>328</v>
       </c>
@@ -3139,7 +3140,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="126" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A126" s="1" t="s">
         <v>328</v>
       </c>
@@ -3153,7 +3154,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="127" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A127" s="1" t="s">
         <v>328</v>
       </c>
@@ -3167,7 +3168,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
         <v>328</v>
       </c>
@@ -3181,7 +3182,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="129" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
         <v>328</v>
       </c>
@@ -3195,7 +3196,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="130" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
         <v>328</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A131" s="1" t="s">
         <v>328</v>
       </c>
@@ -3223,7 +3224,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="132" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A132" s="1" t="s">
         <v>328</v>
       </c>
@@ -3237,7 +3238,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A133" s="1" t="s">
         <v>328</v>
       </c>
@@ -3251,7 +3252,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
         <v>328</v>
       </c>
@@ -3265,7 +3266,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="135" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A135" s="1" t="s">
         <v>328</v>
       </c>
@@ -3279,7 +3280,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A136" s="1" t="s">
         <v>328</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="137" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
         <v>328</v>
       </c>
@@ -3307,7 +3308,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A138" s="1" t="s">
         <v>328</v>
       </c>
@@ -3321,7 +3322,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A139" s="1" t="s">
         <v>328</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A140" s="1" t="s">
         <v>328</v>
       </c>
@@ -3349,7 +3350,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="141" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A141" s="1" t="s">
         <v>328</v>
       </c>
@@ -3363,7 +3364,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A142" s="1" t="s">
         <v>328</v>
       </c>
@@ -3377,7 +3378,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="143" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A143" s="1" t="s">
         <v>328</v>
       </c>
@@ -3391,7 +3392,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="144" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A144" s="1" t="s">
         <v>328</v>
       </c>
@@ -3405,7 +3406,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="145" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A145" s="1" t="s">
         <v>328</v>
       </c>
@@ -3419,7 +3420,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A146" s="1" t="s">
         <v>328</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="147" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A147" s="1" t="s">
         <v>328</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="148" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A148" s="1" t="s">
         <v>328</v>
       </c>
@@ -3461,7 +3462,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A149" s="1" t="s">
         <v>328</v>
       </c>
@@ -3475,7 +3476,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A150" s="1" t="s">
         <v>328</v>
       </c>
@@ -3489,7 +3490,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A151" s="1" t="s">
         <v>328</v>
       </c>
@@ -3503,7 +3504,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
         <v>328</v>
       </c>
@@ -3517,7 +3518,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="153" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A153" s="1" t="s">
         <v>328</v>
       </c>
@@ -3531,7 +3532,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="154" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>328</v>
       </c>
@@ -3545,7 +3546,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="155" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" ht="18" x14ac:dyDescent="0.35">
       <c r="A155" s="1" t="s">
         <v>328</v>
       </c>
@@ -3557,6 +3558,11 @@
       </c>
       <c r="D155" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="18" x14ac:dyDescent="0.35">
+      <c r="A156" s="1" t="s">
+        <v>328</v>
       </c>
     </row>
   </sheetData>
